--- a/po_analysis_by_asin/B0C4BH2Z7D_po_data.xlsx
+++ b/po_analysis_by_asin/B0C4BH2Z7D_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,103 +452,103 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45355</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45362</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45439</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>220</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45453</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45460</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45467</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45481</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45488</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>240</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45495</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45523</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45530</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45544</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>20</v>
@@ -556,65 +556,177 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45551</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45558</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45565</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45572</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>20</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45579</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45593</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45600</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45621</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B22" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B36" t="n">
         <v>40</v>
       </c>
     </row>
@@ -629,7 +741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,65 +763,113 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45352</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45413</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>220</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45444</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>260</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45474</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>360</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45505</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45536</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45566</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45597</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B9" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B15" t="n">
         <v>100</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0C4BH2Z7D_po_data.xlsx
+++ b/po_analysis_by_asin/B0C4BH2Z7D_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,15 +468,15 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45088.99999999999</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45095.99999999999</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>50</v>
@@ -484,31 +484,31 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45102.99999999999</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45116.99999999999</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45123.99999999999</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45130.99999999999</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>10</v>
@@ -516,15 +516,15 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45137.99999999999</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45158.99999999999</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>20</v>
@@ -532,87 +532,87 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45179.99999999999</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45249.99999999999</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45256.99999999999</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45263.99999999999</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45361.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45445.99999999999</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>220</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45459.99999999999</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45466.99999999999</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45473.99999999999</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45480.99999999999</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>20</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45487.99999999999</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>20</v>
@@ -628,31 +628,31 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45494.99999999999</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>240</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45501.99999999999</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45529.99999999999</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45536.99999999999</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B27" t="n">
         <v>20</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45550.99999999999</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B28" t="n">
         <v>20</v>
@@ -668,65 +668,25 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45557.99999999999</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45564.99999999999</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45571.99999999999</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>45578.99999999999</v>
-      </c>
-      <c r="B32" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>45585.99999999999</v>
-      </c>
-      <c r="B33" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>45599.99999999999</v>
-      </c>
-      <c r="B34" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>45606.99999999999</v>
-      </c>
-      <c r="B35" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>45627.99999999999</v>
-      </c>
-      <c r="B36" t="n">
         <v>40</v>
       </c>
     </row>
@@ -741,7 +701,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -774,7 +734,7 @@
         <v>45107.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -782,7 +742,7 @@
         <v>45138.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>290</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
@@ -811,65 +771,57 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45382.99999999999</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>80</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45443.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>220</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45473.99999999999</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>260</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45504.99999999999</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>360</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45535.99999999999</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45565.99999999999</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45596.99999999999</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45626.99999999999</v>
-      </c>
-      <c r="B15" t="n">
         <v>100</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0C4BH2Z7D_po_data.xlsx
+++ b/po_analysis_by_asin/B0C4BH2Z7D_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -717,7 +718,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -823,6 +824,579 @@
       </c>
       <c r="B14" t="n">
         <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>34</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-36.65652001541812</v>
+      </c>
+      <c r="D2" t="n">
+        <v>107.9051231298307</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>35</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-39.78278642161506</v>
+      </c>
+      <c r="D3" t="n">
+        <v>101.9740490003794</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>36</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-35.19882674923815</v>
+      </c>
+      <c r="D4" t="n">
+        <v>105.5447469277526</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>37</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-33.88185603926529</v>
+      </c>
+      <c r="D5" t="n">
+        <v>107.5762543837228</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>38</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-36.98914432990795</v>
+      </c>
+      <c r="D6" t="n">
+        <v>103.2012740649097</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>38</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-29.87817790300408</v>
+      </c>
+      <c r="D7" t="n">
+        <v>112.9567496518735</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>39</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-36.88378931795645</v>
+      </c>
+      <c r="D8" t="n">
+        <v>112.4550521407918</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>40</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-30.3254387600033</v>
+      </c>
+      <c r="D9" t="n">
+        <v>119.40353082914</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>43</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-29.82656831774446</v>
+      </c>
+      <c r="D10" t="n">
+        <v>114.9412990370576</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>44</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-26.97244124218201</v>
+      </c>
+      <c r="D11" t="n">
+        <v>113.9993175591744</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>44</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-29.44133681234654</v>
+      </c>
+      <c r="D12" t="n">
+        <v>112.3161423256091</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>53</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-16.36797189573728</v>
+      </c>
+      <c r="D13" t="n">
+        <v>122.3490398383033</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>54</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-16.05775541584238</v>
+      </c>
+      <c r="D14" t="n">
+        <v>128.0221005051965</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>54</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-16.71903872662429</v>
+      </c>
+      <c r="D15" t="n">
+        <v>124.5531590943876</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>55</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-18.39272256735205</v>
+      </c>
+      <c r="D16" t="n">
+        <v>128.8883390622888</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>55</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-19.07321450645999</v>
+      </c>
+      <c r="D17" t="n">
+        <v>123.0166126726024</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>55</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-12.00755204897514</v>
+      </c>
+      <c r="D18" t="n">
+        <v>128.3342788198451</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>56</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-19.16435501568797</v>
+      </c>
+      <c r="D19" t="n">
+        <v>129.7366217010809</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>56</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-17.19030820764165</v>
+      </c>
+      <c r="D20" t="n">
+        <v>124.7263489072723</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>57</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-12.77989327569266</v>
+      </c>
+      <c r="D21" t="n">
+        <v>123.585379498975</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>58</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-15.45431827115714</v>
+      </c>
+      <c r="D22" t="n">
+        <v>127.8703565262863</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>58</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-11.45212969559344</v>
+      </c>
+      <c r="D23" t="n">
+        <v>132.2744813264473</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>59</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-12.36536195045419</v>
+      </c>
+      <c r="D24" t="n">
+        <v>129.6877534669947</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>59</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-9.634974408542346</v>
+      </c>
+      <c r="D25" t="n">
+        <v>132.0409078379039</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>59</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-12.12008312277443</v>
+      </c>
+      <c r="D26" t="n">
+        <v>126.9952892625436</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>60</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-12.7704194812615</v>
+      </c>
+      <c r="D27" t="n">
+        <v>131.8141472909067</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>60</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-9.636474868627559</v>
+      </c>
+      <c r="D28" t="n">
+        <v>134.5566391521223</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>61</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-15.87759402567113</v>
+      </c>
+      <c r="D29" t="n">
+        <v>130.0643884492598</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>61</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-11.90805152338274</v>
+      </c>
+      <c r="D30" t="n">
+        <v>134.5942671983327</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>62</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-6.528817946115255</v>
+      </c>
+      <c r="D31" t="n">
+        <v>137.5962996518033</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>63</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-13.13833082380431</v>
+      </c>
+      <c r="D32" t="n">
+        <v>134.5521926824343</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>63</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-6.489935489280938</v>
+      </c>
+      <c r="D33" t="n">
+        <v>128.8857067660774</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>63</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-5.422625882645584</v>
+      </c>
+      <c r="D34" t="n">
+        <v>136.4271740437584</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>64</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-9.259706797637193</v>
+      </c>
+      <c r="D35" t="n">
+        <v>133.5428492094141</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>64</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-4.210749824482684</v>
+      </c>
+      <c r="D36" t="n">
+        <v>135.4085326726402</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>64</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-13.11577305438408</v>
+      </c>
+      <c r="D37" t="n">
+        <v>133.3896481607862</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>65</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-2.853186585241473</v>
+      </c>
+      <c r="D38" t="n">
+        <v>135.4261932577126</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>65</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-8.775598499105289</v>
+      </c>
+      <c r="D39" t="n">
+        <v>137.3129284868583</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0C4BH2Z7D_po_data.xlsx
+++ b/po_analysis_by_asin/B0C4BH2Z7D_po_data.xlsx
@@ -837,7 +837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -856,16 +856,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -874,12 +864,6 @@
       <c r="B2" t="n">
         <v>34</v>
       </c>
-      <c r="C2" t="n">
-        <v>-36.65652001541812</v>
-      </c>
-      <c r="D2" t="n">
-        <v>107.9051231298307</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -888,12 +872,6 @@
       <c r="B3" t="n">
         <v>35</v>
       </c>
-      <c r="C3" t="n">
-        <v>-39.78278642161506</v>
-      </c>
-      <c r="D3" t="n">
-        <v>101.9740490003794</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -902,12 +880,6 @@
       <c r="B4" t="n">
         <v>36</v>
       </c>
-      <c r="C4" t="n">
-        <v>-35.19882674923815</v>
-      </c>
-      <c r="D4" t="n">
-        <v>105.5447469277526</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -916,12 +888,6 @@
       <c r="B5" t="n">
         <v>37</v>
       </c>
-      <c r="C5" t="n">
-        <v>-33.88185603926529</v>
-      </c>
-      <c r="D5" t="n">
-        <v>107.5762543837228</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -930,12 +896,6 @@
       <c r="B6" t="n">
         <v>38</v>
       </c>
-      <c r="C6" t="n">
-        <v>-36.98914432990795</v>
-      </c>
-      <c r="D6" t="n">
-        <v>103.2012740649097</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -944,12 +904,6 @@
       <c r="B7" t="n">
         <v>38</v>
       </c>
-      <c r="C7" t="n">
-        <v>-29.87817790300408</v>
-      </c>
-      <c r="D7" t="n">
-        <v>112.9567496518735</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -958,12 +912,6 @@
       <c r="B8" t="n">
         <v>39</v>
       </c>
-      <c r="C8" t="n">
-        <v>-36.88378931795645</v>
-      </c>
-      <c r="D8" t="n">
-        <v>112.4550521407918</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -972,12 +920,6 @@
       <c r="B9" t="n">
         <v>40</v>
       </c>
-      <c r="C9" t="n">
-        <v>-30.3254387600033</v>
-      </c>
-      <c r="D9" t="n">
-        <v>119.40353082914</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -986,12 +928,6 @@
       <c r="B10" t="n">
         <v>43</v>
       </c>
-      <c r="C10" t="n">
-        <v>-29.82656831774446</v>
-      </c>
-      <c r="D10" t="n">
-        <v>114.9412990370576</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1000,12 +936,6 @@
       <c r="B11" t="n">
         <v>44</v>
       </c>
-      <c r="C11" t="n">
-        <v>-26.97244124218201</v>
-      </c>
-      <c r="D11" t="n">
-        <v>113.9993175591744</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1014,12 +944,6 @@
       <c r="B12" t="n">
         <v>44</v>
       </c>
-      <c r="C12" t="n">
-        <v>-29.44133681234654</v>
-      </c>
-      <c r="D12" t="n">
-        <v>112.3161423256091</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1028,12 +952,6 @@
       <c r="B13" t="n">
         <v>53</v>
       </c>
-      <c r="C13" t="n">
-        <v>-16.36797189573728</v>
-      </c>
-      <c r="D13" t="n">
-        <v>122.3490398383033</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1042,12 +960,6 @@
       <c r="B14" t="n">
         <v>54</v>
       </c>
-      <c r="C14" t="n">
-        <v>-16.05775541584238</v>
-      </c>
-      <c r="D14" t="n">
-        <v>128.0221005051965</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1056,12 +968,6 @@
       <c r="B15" t="n">
         <v>54</v>
       </c>
-      <c r="C15" t="n">
-        <v>-16.71903872662429</v>
-      </c>
-      <c r="D15" t="n">
-        <v>124.5531590943876</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1070,12 +976,6 @@
       <c r="B16" t="n">
         <v>55</v>
       </c>
-      <c r="C16" t="n">
-        <v>-18.39272256735205</v>
-      </c>
-      <c r="D16" t="n">
-        <v>128.8883390622888</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1084,12 +984,6 @@
       <c r="B17" t="n">
         <v>55</v>
       </c>
-      <c r="C17" t="n">
-        <v>-19.07321450645999</v>
-      </c>
-      <c r="D17" t="n">
-        <v>123.0166126726024</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1098,12 +992,6 @@
       <c r="B18" t="n">
         <v>55</v>
       </c>
-      <c r="C18" t="n">
-        <v>-12.00755204897514</v>
-      </c>
-      <c r="D18" t="n">
-        <v>128.3342788198451</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1112,12 +1000,6 @@
       <c r="B19" t="n">
         <v>56</v>
       </c>
-      <c r="C19" t="n">
-        <v>-19.16435501568797</v>
-      </c>
-      <c r="D19" t="n">
-        <v>129.7366217010809</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1126,12 +1008,6 @@
       <c r="B20" t="n">
         <v>56</v>
       </c>
-      <c r="C20" t="n">
-        <v>-17.19030820764165</v>
-      </c>
-      <c r="D20" t="n">
-        <v>124.7263489072723</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1140,12 +1016,6 @@
       <c r="B21" t="n">
         <v>57</v>
       </c>
-      <c r="C21" t="n">
-        <v>-12.77989327569266</v>
-      </c>
-      <c r="D21" t="n">
-        <v>123.585379498975</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1154,12 +1024,6 @@
       <c r="B22" t="n">
         <v>58</v>
       </c>
-      <c r="C22" t="n">
-        <v>-15.45431827115714</v>
-      </c>
-      <c r="D22" t="n">
-        <v>127.8703565262863</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1168,12 +1032,6 @@
       <c r="B23" t="n">
         <v>58</v>
       </c>
-      <c r="C23" t="n">
-        <v>-11.45212969559344</v>
-      </c>
-      <c r="D23" t="n">
-        <v>132.2744813264473</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1182,12 +1040,6 @@
       <c r="B24" t="n">
         <v>59</v>
       </c>
-      <c r="C24" t="n">
-        <v>-12.36536195045419</v>
-      </c>
-      <c r="D24" t="n">
-        <v>129.6877534669947</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1196,12 +1048,6 @@
       <c r="B25" t="n">
         <v>59</v>
       </c>
-      <c r="C25" t="n">
-        <v>-9.634974408542346</v>
-      </c>
-      <c r="D25" t="n">
-        <v>132.0409078379039</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1210,12 +1056,6 @@
       <c r="B26" t="n">
         <v>59</v>
       </c>
-      <c r="C26" t="n">
-        <v>-12.12008312277443</v>
-      </c>
-      <c r="D26" t="n">
-        <v>126.9952892625436</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1224,12 +1064,6 @@
       <c r="B27" t="n">
         <v>60</v>
       </c>
-      <c r="C27" t="n">
-        <v>-12.7704194812615</v>
-      </c>
-      <c r="D27" t="n">
-        <v>131.8141472909067</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1238,12 +1072,6 @@
       <c r="B28" t="n">
         <v>60</v>
       </c>
-      <c r="C28" t="n">
-        <v>-9.636474868627559</v>
-      </c>
-      <c r="D28" t="n">
-        <v>134.5566391521223</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1252,12 +1080,6 @@
       <c r="B29" t="n">
         <v>61</v>
       </c>
-      <c r="C29" t="n">
-        <v>-15.87759402567113</v>
-      </c>
-      <c r="D29" t="n">
-        <v>130.0643884492598</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1266,12 +1088,6 @@
       <c r="B30" t="n">
         <v>61</v>
       </c>
-      <c r="C30" t="n">
-        <v>-11.90805152338274</v>
-      </c>
-      <c r="D30" t="n">
-        <v>134.5942671983327</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1280,12 +1096,6 @@
       <c r="B31" t="n">
         <v>62</v>
       </c>
-      <c r="C31" t="n">
-        <v>-6.528817946115255</v>
-      </c>
-      <c r="D31" t="n">
-        <v>137.5962996518033</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1294,12 +1104,6 @@
       <c r="B32" t="n">
         <v>63</v>
       </c>
-      <c r="C32" t="n">
-        <v>-13.13833082380431</v>
-      </c>
-      <c r="D32" t="n">
-        <v>134.5521926824343</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1308,12 +1112,6 @@
       <c r="B33" t="n">
         <v>63</v>
       </c>
-      <c r="C33" t="n">
-        <v>-6.489935489280938</v>
-      </c>
-      <c r="D33" t="n">
-        <v>128.8857067660774</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1322,12 +1120,6 @@
       <c r="B34" t="n">
         <v>63</v>
       </c>
-      <c r="C34" t="n">
-        <v>-5.422625882645584</v>
-      </c>
-      <c r="D34" t="n">
-        <v>136.4271740437584</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1336,12 +1128,6 @@
       <c r="B35" t="n">
         <v>64</v>
       </c>
-      <c r="C35" t="n">
-        <v>-9.259706797637193</v>
-      </c>
-      <c r="D35" t="n">
-        <v>133.5428492094141</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1350,12 +1136,6 @@
       <c r="B36" t="n">
         <v>64</v>
       </c>
-      <c r="C36" t="n">
-        <v>-4.210749824482684</v>
-      </c>
-      <c r="D36" t="n">
-        <v>135.4085326726402</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1364,12 +1144,6 @@
       <c r="B37" t="n">
         <v>64</v>
       </c>
-      <c r="C37" t="n">
-        <v>-13.11577305438408</v>
-      </c>
-      <c r="D37" t="n">
-        <v>133.3896481607862</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1378,12 +1152,6 @@
       <c r="B38" t="n">
         <v>65</v>
       </c>
-      <c r="C38" t="n">
-        <v>-2.853186585241473</v>
-      </c>
-      <c r="D38" t="n">
-        <v>135.4261932577126</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1391,12 +1159,6 @@
       </c>
       <c r="B39" t="n">
         <v>65</v>
-      </c>
-      <c r="C39" t="n">
-        <v>-8.775598499105289</v>
-      </c>
-      <c r="D39" t="n">
-        <v>137.3129284868583</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0C4BH2Z7D_po_data.xlsx
+++ b/po_analysis_by_asin/B0C4BH2Z7D_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,6 +691,14 @@
         <v>40</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -702,7 +710,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,6 +834,14 @@
         <v>100</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -837,7 +853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -862,7 +878,7 @@
         <v>45067.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -878,7 +894,7 @@
         <v>45102.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
@@ -886,7 +902,7 @@
         <v>45123.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
@@ -958,7 +974,7 @@
         <v>45459.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
@@ -974,7 +990,7 @@
         <v>45473.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17">
@@ -982,7 +998,7 @@
         <v>45480.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18">
@@ -998,7 +1014,7 @@
         <v>45494.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
@@ -1006,7 +1022,7 @@
         <v>45501.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
@@ -1014,7 +1030,7 @@
         <v>45529.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22">
@@ -1022,7 +1038,7 @@
         <v>45536.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23">
@@ -1030,7 +1046,7 @@
         <v>45550.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1038,7 +1054,7 @@
         <v>45557.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25">
@@ -1046,7 +1062,7 @@
         <v>45564.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26">
@@ -1054,7 +1070,7 @@
         <v>45571.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27">
@@ -1062,7 +1078,7 @@
         <v>45578.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
@@ -1070,7 +1086,7 @@
         <v>45585.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29">
@@ -1078,7 +1094,7 @@
         <v>45599.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30">
@@ -1086,7 +1102,7 @@
         <v>45606.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
@@ -1094,12 +1110,12 @@
         <v>45627.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45634.99999999999</v>
+        <v>45662.99999999999</v>
       </c>
       <c r="B32" t="n">
         <v>63</v>
@@ -1107,7 +1123,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45641.99999999999</v>
+        <v>45669.99999999999</v>
       </c>
       <c r="B33" t="n">
         <v>63</v>
@@ -1115,7 +1131,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45648.99999999999</v>
+        <v>45676.99999999999</v>
       </c>
       <c r="B34" t="n">
         <v>63</v>
@@ -1123,7 +1139,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45655.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B35" t="n">
         <v>64</v>
@@ -1131,7 +1147,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45662.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B36" t="n">
         <v>64</v>
@@ -1139,7 +1155,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45669.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B37" t="n">
         <v>64</v>
@@ -1147,7 +1163,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45676.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B38" t="n">
         <v>65</v>
@@ -1155,9 +1171,17 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45683.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B39" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45718.99999999999</v>
+      </c>
+      <c r="B40" t="n">
         <v>65</v>
       </c>
     </row>
